--- a/Note.xlsx
+++ b/Note.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ae\genetic-algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>3-M7 (1)</t>
   </si>
@@ -84,6 +85,213 @@
   </si>
   <si>
     <t>6-M5 (2)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>AM5(1)</t>
+  </si>
+  <si>
+    <t>AM7 (1)</t>
+  </si>
+  <si>
+    <t>BM1 (1)</t>
+  </si>
+  <si>
+    <t>BM1 (2)</t>
+  </si>
+  <si>
+    <t>CM7 (1)</t>
+  </si>
+  <si>
+    <t>CM7 (2)</t>
+  </si>
+  <si>
+    <t>CM7 (3)</t>
+  </si>
+  <si>
+    <t>CM3 (1)</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>DM1 (1)</t>
+  </si>
+  <si>
+    <t>EM5(1)</t>
+  </si>
+  <si>
+    <t>DM1 (2)</t>
+  </si>
+  <si>
+    <t>EM5(2)</t>
+  </si>
+  <si>
+    <t>EM5(3)</t>
+  </si>
+  <si>
+    <t>EM5(4)</t>
+  </si>
+  <si>
+    <t>EM5(5)</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>FM4 (1)</t>
+  </si>
+  <si>
+    <t>FM5 (1)</t>
+  </si>
+  <si>
+    <t>FM5 (2)</t>
+  </si>
+  <si>
+    <t>FM5 (3)</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>GM4 (1)</t>
+  </si>
+  <si>
+    <t>GM4 (2)</t>
+  </si>
+  <si>
+    <t>GM4 (3)</t>
+  </si>
+  <si>
+    <t>IM5 (1)</t>
+  </si>
+  <si>
+    <t>IM4 (1)</t>
+  </si>
+  <si>
+    <t>ABCDEFG</t>
+  </si>
+  <si>
+    <t>HM6 (1)</t>
+  </si>
+  <si>
+    <t>HM6 (2)</t>
+  </si>
+  <si>
+    <t>HM6 (3)</t>
+  </si>
+  <si>
+    <t>HM6 (4)</t>
+  </si>
+  <si>
+    <t>HM6 (5)</t>
+  </si>
+  <si>
+    <t>HM6 (6)</t>
+  </si>
+  <si>
+    <t>ABCDEFGI</t>
+  </si>
+  <si>
+    <t>ABCDEFGIH</t>
+  </si>
+  <si>
+    <t>KM8 (1)</t>
+  </si>
+  <si>
+    <t>KM8 (2)</t>
+  </si>
+  <si>
+    <t>KM8 (3)</t>
+  </si>
+  <si>
+    <t>KM8 (4)</t>
+  </si>
+  <si>
+    <t>KM6 (1)</t>
+  </si>
+  <si>
+    <t>KM6 (2)</t>
+  </si>
+  <si>
+    <t>KM6 (3)</t>
+  </si>
+  <si>
+    <t>HM7 (1)</t>
+  </si>
+  <si>
+    <t>HM7 (2)</t>
+  </si>
+  <si>
+    <t>HM7 (3)</t>
+  </si>
+  <si>
+    <t>HM7 (4)</t>
+  </si>
+  <si>
+    <t>JM4 (1)</t>
+  </si>
+  <si>
+    <t>JM4 (2)</t>
+  </si>
+  <si>
+    <t>JM4 (3)</t>
+  </si>
+  <si>
+    <t>KM7 (1)</t>
+  </si>
+  <si>
+    <t>KM7 (2)</t>
+  </si>
+  <si>
+    <t>KM7 (3)</t>
+  </si>
+  <si>
+    <t>ABCDEFGIHKJ</t>
+  </si>
+  <si>
+    <t>Job Done</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -437,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -778,4 +986,443 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>